--- a/web/pcu.xlsx
+++ b/web/pcu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>จำนวนครั้งของการเกิดแผลกดทับในผู้ป่วยติดเตียงที่บ้าน</t>
   </si>
@@ -111,9 +111,6 @@
     <t>1) รหัสหน่วยบริการ 5 หลัก</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>2558</t>
   </si>
   <si>
@@ -153,10 +150,10 @@
     <t>รพ.สต./สอ/สสช</t>
   </si>
   <si>
-    <t>07522</t>
-  </si>
-  <si>
-    <t>65</t>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>00</t>
   </si>
 </sst>
 </file>
@@ -684,7 +681,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.75"/>
@@ -699,10 +696,10 @@
         <v>30</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40.5">
@@ -710,7 +707,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40.5">
@@ -718,7 +715,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="40.5">
@@ -726,7 +723,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1566,10 +1563,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>22</v>
@@ -1578,31 +1575,31 @@
         <v>26</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>23</v>
@@ -1620,15 +1617,15 @@
     <row r="2" spans="1:18">
       <c r="A2" s="9" t="str">
         <f>'k1'!B1</f>
-        <v>07522</v>
+        <v>00000</v>
       </c>
       <c r="B2" s="9" t="str">
         <f>'k1'!B2</f>
-        <v>65</v>
+        <v>00</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>'k1'!B3</f>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -1693,15 +1690,15 @@
     <row r="3" spans="1:18">
       <c r="A3" s="9" t="str">
         <f>'k1'!B1</f>
-        <v>07522</v>
+        <v>00000</v>
       </c>
       <c r="B3" s="9" t="str">
         <f>'k1'!B2</f>
-        <v>65</v>
+        <v>00</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>'k1'!B3</f>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
@@ -1766,15 +1763,15 @@
     <row r="4" spans="1:18">
       <c r="A4" s="9" t="str">
         <f>'k1'!B1</f>
-        <v>07522</v>
+        <v>00000</v>
       </c>
       <c r="B4" s="9" t="str">
         <f>'k1'!B2</f>
-        <v>65</v>
+        <v>00</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>'k1'!B3</f>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="D4" s="9">
         <v>3</v>
@@ -1839,15 +1836,15 @@
     <row r="5" spans="1:18">
       <c r="A5" s="9" t="str">
         <f>'k1'!B1</f>
-        <v>07522</v>
+        <v>00000</v>
       </c>
       <c r="B5" s="9" t="str">
         <f>'k1'!B2</f>
-        <v>65</v>
+        <v>00</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>'k1'!B3</f>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
@@ -1912,15 +1909,15 @@
     <row r="6" spans="1:18">
       <c r="A6" s="9" t="str">
         <f>'k1'!B1</f>
-        <v>07522</v>
+        <v>00000</v>
       </c>
       <c r="B6" s="9" t="str">
         <f>'k1'!B2</f>
-        <v>65</v>
+        <v>00</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>'k1'!B3</f>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
@@ -1985,15 +1982,15 @@
     <row r="7" spans="1:18">
       <c r="A7" s="9" t="str">
         <f>'k1'!B1</f>
-        <v>07522</v>
+        <v>00000</v>
       </c>
       <c r="B7" s="9" t="str">
         <f>'k1'!B2</f>
-        <v>65</v>
+        <v>00</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>'k1'!B3</f>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="D7" s="9">
         <v>6</v>
@@ -2058,15 +2055,15 @@
     <row r="8" spans="1:18">
       <c r="A8" s="9" t="str">
         <f>'k1'!B1</f>
-        <v>07522</v>
+        <v>00000</v>
       </c>
       <c r="B8" s="9" t="str">
         <f>'k1'!B2</f>
-        <v>65</v>
+        <v>00</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>'k1'!B3</f>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="D8" s="9">
         <v>7</v>
@@ -2131,15 +2128,15 @@
     <row r="9" spans="1:18">
       <c r="A9" s="9" t="str">
         <f>'k1'!B1</f>
-        <v>07522</v>
+        <v>00000</v>
       </c>
       <c r="B9" s="9" t="str">
         <f>'k1'!B2</f>
-        <v>65</v>
+        <v>00</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>'k1'!B3</f>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
@@ -2204,15 +2201,15 @@
     <row r="10" spans="1:18">
       <c r="A10" s="9" t="str">
         <f>'k1'!B1</f>
-        <v>07522</v>
+        <v>00000</v>
       </c>
       <c r="B10" s="9" t="str">
         <f>'k1'!B2</f>
-        <v>65</v>
+        <v>00</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>'k1'!B3</f>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="D10" s="9">
         <v>9</v>
@@ -2277,15 +2274,15 @@
     <row r="11" spans="1:18">
       <c r="A11" s="9" t="str">
         <f>'k1'!B1</f>
-        <v>07522</v>
+        <v>00000</v>
       </c>
       <c r="B11" s="9" t="str">
         <f>'k1'!B2</f>
-        <v>65</v>
+        <v>00</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>'k1'!B3</f>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="D11" s="9">
         <v>10</v>

--- a/web/pcu.xlsx
+++ b/web/pcu.xlsx
@@ -48,9 +48,6 @@
     <t>จำนวนแผนงาน/โครงการทั้งหมดในปีเดียวกัน</t>
   </si>
   <si>
-    <t>จำนวนความสำเร็จของ รพ.ที่มีการดำเนินงานผ่านเกณฑ์คุณภาพต้นแบบงานเยี่ยมบ้านระดับ 3  (จังหวัดละ 1 แห่ง)</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>00</t>
+  </si>
+  <si>
+    <t>จำนวนความสำเร็จของ รพ.ที่มีการดำเนินงานผ่านเกณฑ์คุณภาพต้นแบบงานเยี่ยมบ้านระดับ 3  (จังหวัดละ2 แห่ง)</t>
   </si>
 </sst>
 </file>
@@ -390,6 +390,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -684,7 +689,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.75"/>
   <cols>
     <col min="1" max="1" width="40.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="3" customWidth="1"/>
@@ -693,37 +698,37 @@
   <sheetData>
     <row r="1" spans="1:3" ht="40.5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40.5">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40.5">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="40.5">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -738,13 +743,13 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25"/>
   <cols>
     <col min="1" max="1" width="6.375" style="27" customWidth="1"/>
     <col min="2" max="2" width="40.75" style="28" customWidth="1"/>
@@ -756,10 +761,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="20" customFormat="1">
       <c r="A1" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="14" t="str">
         <f>CONCATENATE("ตค.",'k1'!B4-1)</f>
@@ -810,7 +815,7 @@
         <v>กย.2558</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="46.5">
@@ -818,47 +823,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4">
-        <v>4</v>
-      </c>
-      <c r="M2" s="4">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="15">
         <f>SUM(C2:N2)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -868,45 +849,21 @@
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>100</v>
-      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="15">
         <f t="shared" ref="O3:O19" si="0">SUM(C3:N3)</f>
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="46.5">
@@ -914,39 +871,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4">
-        <v>4</v>
-      </c>
-      <c r="J4" s="4">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="15">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1006,23 +947,23 @@
       </c>
       <c r="C7" s="26">
         <f>IF(C9=0,0,C8/C9*100)</f>
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
       <c r="D7" s="26">
         <f t="shared" ref="D7:O7" si="1">IF(D9=0,0,D8/D9*100)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="26">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F7" s="26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G7" s="26">
         <f t="shared" si="1"/>
-        <v>83.333333333333343</v>
+        <v>0</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="1"/>
@@ -1054,7 +995,7 @@
       </c>
       <c r="O7" s="16">
         <f t="shared" si="1"/>
-        <v>35.483870967741936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="43.5" customHeight="1">
@@ -1062,21 +1003,11 @@
       <c r="B8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>5</v>
-      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1086,7 +1017,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="15">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="29.25" customHeight="1">
@@ -1094,45 +1025,21 @@
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2</v>
-      </c>
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="15">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="46.5">
@@ -1140,15 +1047,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="26">
         <f>IF(C12=0,0,C11/C12*100)</f>
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="D10" s="26">
         <f t="shared" ref="D10:O10" si="2">IF(D12=0,0,D11/D12*100)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E10" s="26">
         <f t="shared" si="2"/>
@@ -1192,20 +1099,16 @@
       </c>
       <c r="O10" s="16">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="46.5">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5">
-        <v>100</v>
-      </c>
-      <c r="D11" s="5">
-        <v>300</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1218,7 +1121,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="15">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1226,12 +1129,8 @@
       <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5">
-        <v>300</v>
-      </c>
-      <c r="D12" s="5">
-        <v>500</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1244,7 +1143,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="15">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1256,31 +1155,31 @@
       </c>
       <c r="C13" s="26">
         <f>IF(C15=0,0,C14/C15*100)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D13" s="26">
         <f t="shared" ref="D13:O13" si="3">IF(D15=0,0,D14/D15*100)</f>
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="E13" s="26">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F13" s="26">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G13" s="26">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I13" s="26">
         <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="J13" s="26">
         <f t="shared" si="3"/>
@@ -1304,35 +1203,21 @@
       </c>
       <c r="O13" s="17">
         <f t="shared" si="3"/>
-        <v>68.421052631578945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="46.5">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>5</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>3</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1340,7 +1225,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="15">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1348,27 +1233,13 @@
       <c r="B15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>5</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>4</v>
-      </c>
-      <c r="I15" s="5">
-        <v>3</v>
-      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1376,7 +1247,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="69.75">
@@ -1384,23 +1255,23 @@
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="26">
         <f>IF(C18=0,0,C17/C18*100)</f>
-        <v>66.666666666666657</v>
+        <v>0</v>
       </c>
       <c r="D16" s="26">
         <f t="shared" ref="D16:O16" si="4">IF(D18=0,0,D17/D18*100)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E16" s="26">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G16" s="26">
         <f t="shared" si="4"/>
@@ -1436,39 +1307,29 @@
       </c>
       <c r="O16" s="16">
         <f t="shared" si="4"/>
-        <v>2060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="69.75">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5">
-        <v>200</v>
-      </c>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="15">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1476,18 +1337,10 @@
       <c r="B18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="5">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>4</v>
-      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1498,7 +1351,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="15">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="69.75">
@@ -1506,31 +1359,23 @@
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5">
-        <v>400</v>
-      </c>
+      <c r="N19" s="5"/>
       <c r="O19" s="15">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1548,10 +1393,10 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75"/>
   <cols>
     <col min="1" max="1" width="9.25" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="9" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="9" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="11" customWidth="1"/>
     <col min="5" max="5" width="8.125" style="9" customWidth="1"/>
@@ -1560,58 +1405,58 @@
   <sheetData>
     <row r="1" spans="1:18" s="8" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="R1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1652,39 +1497,39 @@
       </c>
       <c r="J2" s="10">
         <f>'k2'!G2</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K2" s="10">
         <f>'k2'!H2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="10">
         <f>'k2'!I2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="10">
         <f>'k2'!J2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="10">
         <f>'k2'!K2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O2" s="10">
         <f>'k2'!L2</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" s="10">
         <f>'k2'!M2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="10">
         <f>'k2'!N2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(F2:Q2)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1709,11 +1554,11 @@
       </c>
       <c r="F3" s="10">
         <f>'k2'!C3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="10">
         <f>'k2'!D3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="10">
         <f>'k2'!E3</f>
@@ -1753,11 +1598,11 @@
       </c>
       <c r="Q3" s="10">
         <f>'k2'!N3</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R3" s="10">
         <f t="shared" ref="R3:R11" si="0">SUM(F3:Q3)</f>
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1782,35 +1627,35 @@
       </c>
       <c r="F4" s="10">
         <f>'k2'!C4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="10">
         <f>'k2'!D4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10">
         <f>'k2'!E4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="10">
         <f>'k2'!F4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="10">
         <f>'k2'!G4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" s="10">
         <f>'k2'!H4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" s="10">
         <f>'k2'!I4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M4" s="10">
         <f>'k2'!J4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N4" s="10">
         <f>'k2'!K4</f>
@@ -1830,7 +1675,7 @@
       </c>
       <c r="R4" s="10">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2001,23 +1846,23 @@
       </c>
       <c r="F7" s="12">
         <f>'k2'!C7</f>
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
         <f>'k2'!D7</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12">
         <f>'k2'!E7</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12">
         <f>'k2'!F7</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J7" s="12">
         <f>'k2'!G7</f>
-        <v>83.333333333333343</v>
+        <v>0</v>
       </c>
       <c r="K7" s="12">
         <f>'k2'!H7</f>
@@ -2049,7 +1894,7 @@
       </c>
       <c r="R7" s="12">
         <f>'k2'!O7</f>
-        <v>35.483870967741936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2074,11 +1919,11 @@
       </c>
       <c r="F8" s="12">
         <f>'k2'!C10</f>
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="G8" s="12">
         <f>'k2'!D10</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H8" s="12">
         <f>'k2'!E10</f>
@@ -2122,7 +1967,7 @@
       </c>
       <c r="R8" s="12">
         <f>'k2'!O10</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2147,31 +1992,31 @@
       </c>
       <c r="F9" s="12">
         <f>'k2'!C13</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
         <f>'k2'!D13</f>
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="H9" s="12">
         <f>'k2'!E13</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12">
         <f>'k2'!F13</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="12">
         <f>'k2'!G13</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="12">
         <f>'k2'!H13</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L9" s="12">
         <f>'k2'!I13</f>
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="M9" s="12">
         <f>'k2'!J13</f>
@@ -2195,7 +2040,7 @@
       </c>
       <c r="R9" s="12">
         <f>'k2'!O13</f>
-        <v>68.421052631578945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2220,19 +2065,19 @@
       </c>
       <c r="F10" s="12">
         <f>'k2'!C16</f>
-        <v>66.666666666666657</v>
+        <v>0</v>
       </c>
       <c r="G10" s="12">
         <f>'k2'!D16</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H10" s="12">
         <f>'k2'!E16</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="12">
         <f>'k2'!F16</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J10" s="12">
         <f>'k2'!G16</f>
@@ -2268,7 +2113,7 @@
       </c>
       <c r="R10" s="12">
         <f>'k2'!O16</f>
-        <v>2060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2293,7 +2138,7 @@
       </c>
       <c r="F11" s="10">
         <f>'k2'!C19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="10">
         <f>'k2'!D19</f>
@@ -2301,7 +2146,7 @@
       </c>
       <c r="H11" s="10">
         <f>'k2'!E19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="10">
         <f>'k2'!F19</f>
@@ -2313,7 +2158,7 @@
       </c>
       <c r="K11" s="10">
         <f>'k2'!H19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="10">
         <f>'k2'!I19</f>
@@ -2337,11 +2182,11 @@
       </c>
       <c r="Q11" s="10">
         <f>'k2'!N19</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R11" s="10">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
